--- a/teaching/traditional_assets/database/data/hong_kong/hong_kong_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/hong_kong/hong_kong_insurance_general.xlsx
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.157715</v>
+        <v>0.09559999999999999</v>
       </c>
       <c r="E2">
-        <v>0.0044</v>
+        <v>-0.21</v>
       </c>
       <c r="G2">
-        <v>0.08590381426202322</v>
+        <v>0.2256253508826648</v>
       </c>
       <c r="H2">
-        <v>0.08590381426202322</v>
+        <v>0.2256253508826648</v>
       </c>
       <c r="I2">
-        <v>0.1868506949961285</v>
+        <v>0.01266296550433535</v>
       </c>
       <c r="J2">
-        <v>0.1780007666240391</v>
+        <v>0.01192967643048736</v>
       </c>
       <c r="K2">
-        <v>44.15</v>
+        <v>9.77</v>
       </c>
       <c r="L2">
-        <v>0.2440574903261471</v>
+        <v>0.06094442018588984</v>
       </c>
       <c r="M2">
-        <v>12.35</v>
+        <v>17.03</v>
       </c>
       <c r="N2">
-        <v>0.02481015709751296</v>
+        <v>0.03610039428498749</v>
       </c>
       <c r="O2">
-        <v>0.2797281993204984</v>
+        <v>1.743091095189355</v>
       </c>
       <c r="P2">
-        <v>8.710000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Q2">
-        <v>0.01749768974245651</v>
+        <v>0.02225802348751431</v>
       </c>
       <c r="R2">
-        <v>0.197281993204983</v>
+        <v>1.074718526100307</v>
       </c>
       <c r="S2">
-        <v>3.640000000000001</v>
+        <v>6.530000000000001</v>
       </c>
       <c r="T2">
-        <v>0.2947368421052632</v>
+        <v>0.3834409864944217</v>
       </c>
       <c r="U2">
-        <v>371.4</v>
+        <v>432.5</v>
       </c>
       <c r="V2">
-        <v>0.7461127405681224</v>
+        <v>0.916818586509518</v>
       </c>
       <c r="W2">
-        <v>-0.1268856610512153</v>
+        <v>-0.2870690095650752</v>
       </c>
       <c r="X2">
-        <v>0.0871276004112774</v>
+        <v>0.04438265700927194</v>
       </c>
       <c r="Y2">
-        <v>-0.2140132614624927</v>
+        <v>-0.3314516665743471</v>
       </c>
       <c r="Z2">
-        <v>0.1958388739835524</v>
+        <v>0.1760959448831007</v>
       </c>
       <c r="AA2">
-        <v>0.000677166886006067</v>
+        <v>-0.04099677312100465</v>
       </c>
       <c r="AB2">
-        <v>0.07513684106699363</v>
+        <v>0.04436862383690042</v>
       </c>
       <c r="AC2">
-        <v>-0.07445967418098756</v>
+        <v>-0.08536539695790507</v>
       </c>
       <c r="AD2">
-        <v>47.5</v>
+        <v>0.545</v>
       </c>
       <c r="AE2">
-        <v>0.418546376001832</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>47.91854637600183</v>
+        <v>0.545</v>
       </c>
       <c r="AG2">
-        <v>-323.4814536239982</v>
+        <v>-431.955</v>
       </c>
       <c r="AH2">
-        <v>0.08781138724709847</v>
+        <v>0.001153964237695459</v>
       </c>
       <c r="AI2">
-        <v>0.03718886818569606</v>
+        <v>0.0004668714047689415</v>
       </c>
       <c r="AJ2">
-        <v>-1.855904483139949</v>
+        <v>-10.85723262536131</v>
       </c>
       <c r="AK2">
-        <v>-0.3527149842321221</v>
+        <v>-0.5878178391361443</v>
       </c>
       <c r="AL2">
-        <v>4.891</v>
+        <v>4.873</v>
       </c>
       <c r="AM2">
-        <v>4.891</v>
+        <v>4.873</v>
       </c>
       <c r="AN2">
-        <v>1.357724739173932</v>
+        <v>0.1548295454545455</v>
       </c>
       <c r="AO2">
-        <v>6.845225925168678</v>
+        <v>0.4165811615021547</v>
       </c>
       <c r="AP2">
-        <v>-9.246289942089415</v>
+        <v>-122.7144886363636</v>
       </c>
       <c r="AQ2">
-        <v>6.845225925168678</v>
+        <v>0.4165811615021547</v>
       </c>
     </row>
     <row r="3">
@@ -725,121 +725,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.00357</v>
+        <v>-0.0218</v>
       </c>
       <c r="E3">
-        <v>0.0044</v>
+        <v>-0.21</v>
       </c>
       <c r="G3">
-        <v>0.1090693538826319</v>
+        <v>0.2563270603504218</v>
       </c>
       <c r="H3">
-        <v>0.1090693538826319</v>
+        <v>0.2563270603504218</v>
       </c>
       <c r="I3">
-        <v>0.2088626293515469</v>
+        <v>0.03523685918234912</v>
       </c>
       <c r="J3">
-        <v>0.1890776420984276</v>
+        <v>0.03115585559337298</v>
       </c>
       <c r="K3">
-        <v>49.9</v>
+        <v>17.3</v>
       </c>
       <c r="L3">
-        <v>0.2957913455838767</v>
+        <v>0.1122647631408177</v>
       </c>
       <c r="M3">
-        <v>12.35</v>
+        <v>17.03</v>
       </c>
       <c r="N3">
-        <v>0.02530219217373489</v>
+        <v>0.0367263316799655</v>
       </c>
       <c r="O3">
-        <v>0.2474949899799599</v>
+        <v>0.9843930635838151</v>
       </c>
       <c r="P3">
-        <v>8.710000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Q3">
-        <v>0.01784470395410776</v>
+        <v>0.0226439508302782</v>
       </c>
       <c r="R3">
-        <v>0.1745490981963928</v>
+        <v>0.6069364161849711</v>
       </c>
       <c r="S3">
-        <v>3.640000000000001</v>
+        <v>6.530000000000001</v>
       </c>
       <c r="T3">
-        <v>0.2947368421052632</v>
+        <v>0.3834409864944217</v>
       </c>
       <c r="U3">
-        <v>371.4</v>
+        <v>432.5</v>
       </c>
       <c r="V3">
-        <v>0.7609096496619544</v>
+        <v>0.9327151175328877</v>
       </c>
       <c r="W3">
-        <v>0.04262043047488896</v>
+        <v>0.01414323086984958</v>
       </c>
       <c r="X3">
-        <v>0.05069974686845734</v>
+        <v>0.04439986361897712</v>
       </c>
       <c r="Y3">
-        <v>-0.008079316393568375</v>
+        <v>-0.03025663274912754</v>
       </c>
       <c r="Z3">
-        <v>0.1911605260272421</v>
+        <v>0.1768215720022949</v>
       </c>
       <c r="AA3">
-        <v>0.03614418152352604</v>
+        <v>0.005509027363096701</v>
       </c>
       <c r="AB3">
-        <v>0.04977606988750342</v>
+        <v>0.04437179727423409</v>
       </c>
       <c r="AC3">
-        <v>-0.01363188836397738</v>
+        <v>-0.03886276991113739</v>
       </c>
       <c r="AD3">
-        <v>19.7</v>
+        <v>0.545</v>
       </c>
       <c r="AE3">
-        <v>0.1043721419701915</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>19.80437214197019</v>
+        <v>0.545</v>
       </c>
       <c r="AG3">
-        <v>-351.5956278580298</v>
+        <v>-431.955</v>
       </c>
       <c r="AH3">
-        <v>0.03899232459537569</v>
+        <v>0.00117394910015186</v>
       </c>
       <c r="AI3">
-        <v>0.01585231956565956</v>
+        <v>0.0004668714047689415</v>
       </c>
       <c r="AJ3">
-        <v>-2.575709644613842</v>
+        <v>-13.60702472830367</v>
       </c>
       <c r="AK3">
-        <v>-0.4004942212557651</v>
+        <v>-0.5878178391361443</v>
       </c>
       <c r="AL3">
-        <v>0.591</v>
+        <v>0.283</v>
       </c>
       <c r="AM3">
-        <v>0.591</v>
+        <v>0.283</v>
       </c>
       <c r="AN3">
-        <v>0.5403774412991004</v>
+        <v>0.07956204379562044</v>
       </c>
       <c r="AO3">
-        <v>59.5600676818951</v>
+        <v>19.18727915194346</v>
       </c>
       <c r="AP3">
-        <v>-9.644383033191513</v>
+        <v>-63.05912408759124</v>
       </c>
       <c r="AQ3">
-        <v>59.5600676818951</v>
+        <v>19.18727915194346</v>
       </c>
     </row>
     <row r="4">
@@ -859,25 +859,25 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.319</v>
+        <v>0.213</v>
       </c>
       <c r="G4">
-        <v>-0.2344262295081967</v>
+        <v>-0.5362318840579711</v>
       </c>
       <c r="H4">
-        <v>-0.2344262295081967</v>
+        <v>-0.5362318840579711</v>
       </c>
       <c r="I4">
-        <v>-0.1175274464595351</v>
+        <v>-0.5475040257648953</v>
       </c>
       <c r="J4">
-        <v>-0.1175274464595351</v>
+        <v>-0.5475040257648953</v>
       </c>
       <c r="K4">
-        <v>-5.75</v>
+        <v>-7.53</v>
       </c>
       <c r="L4">
-        <v>-0.4713114754098361</v>
+        <v>-1.21256038647343</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -907,67 +907,61 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>-0.2963917525773196</v>
+        <v>-0.58828125</v>
       </c>
       <c r="X4">
-        <v>0.1235554539540975</v>
+        <v>0.04436545039956676</v>
       </c>
       <c r="Y4">
-        <v>-0.419947206531417</v>
+        <v>-0.6326467003995667</v>
       </c>
       <c r="Z4">
-        <v>0.2960146655061728</v>
+        <v>0.1598208770846201</v>
       </c>
       <c r="AA4">
-        <v>-0.03478984775151391</v>
+        <v>-0.08750257360510601</v>
       </c>
       <c r="AB4">
-        <v>0.1004976122464838</v>
+        <v>0.04436545039956676</v>
       </c>
       <c r="AC4">
-        <v>-0.1352874599979977</v>
+        <v>-0.1318680240046728</v>
       </c>
       <c r="AD4">
-        <v>27.8</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.3141742340316405</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>28.11417423403164</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>28.11417423403164</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.7438758698613481</v>
-      </c>
-      <c r="AI4">
-        <v>0.7169390860112268</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.7438758698613481</v>
-      </c>
-      <c r="AK4">
-        <v>0.7169390860112268</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>4.3</v>
+        <v>4.59</v>
       </c>
       <c r="AM4">
-        <v>4.3</v>
+        <v>4.59</v>
       </c>
       <c r="AN4">
-        <v>-18.89870836165873</v>
+        <v>-0</v>
       </c>
       <c r="AO4">
-        <v>-0.4</v>
+        <v>-0.7407407407407407</v>
       </c>
       <c r="AP4">
-        <v>-19.11228703877066</v>
+        <v>-0</v>
       </c>
       <c r="AQ4">
-        <v>-0.4</v>
+        <v>-0.7407407407407407</v>
       </c>
     </row>
   </sheetData>
